--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Desktop\banuselenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\banuselenium\b38April7\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94457E98-6A2B-4B0C-B2CB-050EC99ECD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C96E857-089D-4348-821C-E292F04AA774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62760" yWindow="3735" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
     <sheet name="test2" sheetId="2" r:id="rId2"/>
     <sheet name="test3" sheetId="3" r:id="rId3"/>
+    <sheet name="testValidLogin" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>UN</t>
   </si>
@@ -80,7 +81,13 @@
     <t>A4</t>
   </si>
   <si>
-    <t>R</t>
+    <t>E-Title</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>actiTIME - Enter Time-Track</t>
   </si>
 </sst>
 </file>
@@ -401,7 +408,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,7 +455,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,16 +499,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB86C3DB-1922-421A-94B6-D5F9DCA2F927}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172C7B65-83D8-480F-B50F-F58A2AAC7E8B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -513,34 +572,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
